--- a/论文写作/New Microsoft Excel Worksheet.xlsx
+++ b/论文写作/New Microsoft Excel Worksheet.xlsx
@@ -8,33 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDoc\毕业设计\论文写作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE8CFB-CCFE-44C0-BB53-0C52B140A672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39F867-FC3D-48C3-985D-806241AC604A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1305" windowWidth="20895" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1:$B$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1:$C$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1:$C$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$1:$D$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$1:$E$11</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$F$1:$F$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$G$1:$G$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$H$1:$H$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$I$1:$I$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$J$1:$J$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1:$D$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$1:$E$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$1:$F$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$1:$G$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$1:$H$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$I$1:$I$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$J$1:$J$11</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$1:$B$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +35,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,7 +544,649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-SG"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>265.70999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6166-400B-A63B-D3118737D4B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-SG"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>354.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>349.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>368.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>426.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6166-400B-A63B-D3118737D4B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1066001231"/>
+        <c:axId val="1065996655"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1066001231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>收集取样结果的次数</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-SG" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-SG"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-SG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065996655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1065996655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>使用时间（毫秒）</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-SG" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-SG"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-SG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1066001231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-SG"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-SG"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1099,6 +1729,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1120,6 +2253,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21D571F-56AA-4408-9829-84C23070F5A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F6172D-C0B1-4862-97DB-D8CDE0838C6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,13 +2579,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2</v>
       </c>
@@ -1440,7 +2614,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>192</v>
       </c>
@@ -1469,7 +2643,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>192</v>
       </c>
@@ -1498,7 +2672,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>191</v>
       </c>
@@ -1527,7 +2701,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>192</v>
       </c>
@@ -1556,7 +2730,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>194</v>
       </c>
@@ -1585,7 +2759,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>192</v>
       </c>
@@ -1614,7 +2788,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>193</v>
       </c>
@@ -1643,7 +2817,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>194</v>
       </c>
@@ -1672,7 +2846,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>191</v>
       </c>
@@ -1701,7 +2875,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>195</v>
       </c>
@@ -1730,7 +2904,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f>MAX(B2:B11)/MIN(B2:B11) - 1</f>
         <v>2.0942408376963373E-2</v>
@@ -1773,4 +2947,77 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41167959-7853-400A-871C-227ACFE786AB}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>25</v>
+      </c>
+      <c r="D1">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <v>75</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>265.70999999999998</v>
+      </c>
+      <c r="C2">
+        <v>268.02</v>
+      </c>
+      <c r="D2">
+        <v>279.05</v>
+      </c>
+      <c r="E2">
+        <v>294.61</v>
+      </c>
+      <c r="F2">
+        <v>312.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>354.58</v>
+      </c>
+      <c r="C3">
+        <v>352.7</v>
+      </c>
+      <c r="D3">
+        <v>349.31</v>
+      </c>
+      <c r="E3">
+        <v>368.38</v>
+      </c>
+      <c r="F3">
+        <v>426.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>